--- a/biology/Zoologie/Hippoboscidae/Hippoboscidae.xlsx
+++ b/biology/Zoologie/Hippoboscidae/Hippoboscidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les hippoboscidés (Hippoboscidae) forment une nombreuse famille d'insectes diptères piqueurs et hématophages, ailés ou aptères, qui parasitent les oiseaux ou les mammifères. Cette famille comporte plus de 200 espèces.
 Certaines de ces mouches transportent des maladies comme la malaria du pigeon.
@@ -512,7 +524,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Corps plat et robuste.
 Trompe pour piquer.
@@ -544,7 +558,9 @@
           <t>Liste des sous-familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Selon ITIS :
 sous-famille Hippoboscinae
@@ -581,9 +597,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (18 oct. 2012)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (18 oct. 2012) :
 genre Allobosca
 genre Anastrebla
 genre Anatrichobius
